--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Futures.xlsx
@@ -16,9 +16,6 @@
     <sheet name="3M (2)" sheetId="25" r:id="rId7"/>
     <sheet name="ImmFra6M (2)" sheetId="26" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Currency</t>
   </si>
@@ -127,6 +124,9 @@
   <si>
     <t>Libor</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +140,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -643,22 +643,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -953,7 +937,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="7" customWidth="1"/>
@@ -964,13 +948,13 @@
     <col min="7" max="16384" width="8" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="53" t="s">
         <v>8</v>
@@ -979,14 +963,14 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="15"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="15"/>
       <c r="C4" s="25" t="s">
@@ -997,7 +981,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="15"/>
       <c r="C5" s="25" t="s">
@@ -1008,7 +992,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="15"/>
       <c r="C6" s="25" t="s">
@@ -1019,7 +1003,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="15"/>
       <c r="C7" s="25" t="s">
@@ -1030,19 +1014,18 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="15"/>
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="25" t="s">
@@ -1053,15 +1036,15 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>19</v>
       </c>
@@ -1072,13 +1055,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="29" t="s">
         <v>0</v>
@@ -1091,7 +1074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
         <v>20</v>
@@ -1101,7 +1084,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="29" t="s">
         <v>15</v>
@@ -1111,7 +1094,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -1146,7 +1129,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -1160,7 +1143,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1178,7 +1161,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -1202,17 +1185,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YCSTDRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -1251,7 +1234,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -1289,7 +1272,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -1327,7 +1310,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -1365,7 +1348,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -1403,7 +1386,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -1441,7 +1424,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -1479,7 +1462,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -1517,7 +1500,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -1555,7 +1538,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -1593,7 +1576,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -1631,7 +1614,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -1669,7 +1652,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -1707,7 +1690,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -1745,7 +1728,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -1783,7 +1766,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -1821,7 +1804,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -1859,7 +1842,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -1897,7 +1880,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -1935,7 +1918,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -1973,7 +1956,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -2011,7 +1994,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -2049,7 +2032,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -2087,7 +2070,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -2125,7 +2108,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -2163,7 +2146,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -2201,7 +2184,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -2239,7 +2222,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -2277,7 +2260,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -2315,7 +2298,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -2353,7 +2336,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -2391,7 +2374,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -2429,7 +2412,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -2467,7 +2450,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -2505,7 +2488,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -2543,7 +2526,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -2581,7 +2564,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -2619,7 +2602,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -2656,7 +2639,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -2693,7 +2676,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -2730,7 +2713,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -2767,7 +2750,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -2804,7 +2787,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -2841,7 +2824,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -2878,7 +2861,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -2915,7 +2898,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -2952,7 +2935,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -2989,7 +2972,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -3026,7 +3009,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -3063,7 +3046,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -3100,7 +3083,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -3137,7 +3120,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -3174,7 +3157,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -3211,7 +3194,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -3248,7 +3231,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -3285,7 +3268,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -3322,7 +3305,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -3359,7 +3342,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -3396,7 +3379,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -3433,7 +3416,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -3470,7 +3453,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -3507,7 +3490,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -3544,7 +3527,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -3581,7 +3564,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -3618,7 +3601,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -3655,7 +3638,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -3692,7 +3675,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -3729,7 +3712,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -3766,7 +3749,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -3803,7 +3786,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -3840,7 +3823,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -3877,7 +3860,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -3914,7 +3897,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -3951,7 +3934,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -3988,7 +3971,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -4025,7 +4008,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -4062,7 +4045,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -4099,7 +4082,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -4136,7 +4119,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -4173,7 +4156,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -4210,7 +4193,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -4247,7 +4230,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -4284,7 +4267,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -4321,7 +4304,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -4358,7 +4341,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -4395,7 +4378,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -4432,7 +4415,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -4469,7 +4452,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -4506,7 +4489,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -4543,7 +4526,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -4580,7 +4563,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -4617,7 +4600,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -4654,7 +4637,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -4691,7 +4674,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -4728,7 +4711,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -4765,7 +4748,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -4802,7 +4785,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -4839,7 +4822,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -4876,7 +4859,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -4913,7 +4896,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -4950,7 +4933,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -4987,7 +4970,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -5024,7 +5007,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -5061,7 +5044,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -5098,7 +5081,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -5135,7 +5118,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -5172,7 +5155,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -5209,7 +5192,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -5246,7 +5229,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -5283,7 +5266,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -5320,7 +5303,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -5357,7 +5340,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -5394,7 +5377,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -5431,7 +5414,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -5468,7 +5451,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -5505,7 +5488,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -5542,7 +5525,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -5579,7 +5562,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -5616,7 +5599,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -5653,7 +5636,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -5690,7 +5673,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -5720,7 +5703,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -5736,7 +5719,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -5754,7 +5737,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -5778,17 +5761,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YC1MRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -5827,7 +5810,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -5865,7 +5848,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -5903,7 +5886,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -5941,7 +5924,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -5979,7 +5962,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -6017,7 +6000,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -6055,7 +6038,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -6093,7 +6076,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -6131,7 +6114,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -6169,7 +6152,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -6207,7 +6190,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -6245,7 +6228,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -6283,7 +6266,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -6321,7 +6304,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -6359,7 +6342,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -6397,7 +6380,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -6435,7 +6418,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -6473,7 +6456,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -6511,7 +6494,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -6549,7 +6532,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -6587,7 +6570,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -6625,7 +6608,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -6663,7 +6646,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -6701,7 +6684,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -6739,7 +6722,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -6777,7 +6760,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -6815,7 +6798,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -6853,7 +6836,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -6891,7 +6874,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -6929,7 +6912,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -6967,7 +6950,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -7005,7 +6988,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -7043,7 +7026,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -7081,7 +7064,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -7119,7 +7102,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -7157,7 +7140,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -7195,7 +7178,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -7232,7 +7215,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -7269,7 +7252,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -7306,7 +7289,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -7343,7 +7326,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -7380,7 +7363,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -7417,7 +7400,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -7454,7 +7437,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -7491,7 +7474,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -7528,7 +7511,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -7565,7 +7548,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -7602,7 +7585,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -7639,7 +7622,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -7676,7 +7659,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -7713,7 +7696,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -7750,7 +7733,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -7787,7 +7770,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -7824,7 +7807,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -7861,7 +7844,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -7898,7 +7881,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -7935,7 +7918,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -7972,7 +7955,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -8009,7 +7992,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -8046,7 +8029,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -8083,7 +8066,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -8120,7 +8103,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -8157,7 +8140,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -8194,7 +8177,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -8231,7 +8214,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -8268,7 +8251,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -8305,7 +8288,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -8342,7 +8325,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -8379,7 +8362,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -8416,7 +8399,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -8453,7 +8436,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -8490,7 +8473,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -8527,7 +8510,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -8564,7 +8547,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -8601,7 +8584,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -8638,7 +8621,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -8675,7 +8658,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -8712,7 +8695,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -8749,7 +8732,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -8786,7 +8769,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -8823,7 +8806,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -8860,7 +8843,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -8897,7 +8880,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -8934,7 +8917,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -8971,7 +8954,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -9008,7 +8991,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -9045,7 +9028,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -9082,7 +9065,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -9119,7 +9102,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -9156,7 +9139,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -9193,7 +9176,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -9230,7 +9213,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -9267,7 +9250,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -9304,7 +9287,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -9341,7 +9324,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -9378,7 +9361,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -9415,7 +9398,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -9452,7 +9435,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -9489,7 +9472,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -9526,7 +9509,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -9563,7 +9546,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -9600,7 +9583,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -9637,7 +9620,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -9674,7 +9657,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -9711,7 +9694,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -9748,7 +9731,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -9785,7 +9768,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -9822,7 +9805,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -9859,7 +9842,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -9896,7 +9879,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -9933,7 +9916,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -9970,7 +9953,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -10007,7 +9990,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -10044,7 +10027,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -10081,7 +10064,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -10118,7 +10101,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -10155,7 +10138,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -10192,7 +10175,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -10229,7 +10212,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -10266,7 +10249,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="12" thickBot="1">
+    <row r="123" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -10296,7 +10279,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -10310,7 +10293,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -10328,7 +10311,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -10352,17 +10335,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -10401,7 +10384,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -10439,7 +10422,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -10477,7 +10460,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -10515,7 +10498,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -10553,7 +10536,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -10591,7 +10574,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -10629,7 +10612,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -10667,7 +10650,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -10705,7 +10688,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -10743,7 +10726,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -10781,7 +10764,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -10819,7 +10802,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -10857,7 +10840,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -10895,7 +10878,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -10933,7 +10916,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -10971,7 +10954,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -11009,7 +10992,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -11047,7 +11030,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -11085,7 +11068,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -11123,7 +11106,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -11161,7 +11144,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -11199,7 +11182,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -11237,7 +11220,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -11275,7 +11258,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -11313,7 +11296,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -11351,7 +11334,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -11389,7 +11372,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -11427,7 +11410,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -11465,7 +11448,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -11503,7 +11486,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -11541,7 +11524,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -11579,7 +11562,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -11617,7 +11600,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -11655,7 +11638,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -11693,7 +11676,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -11731,7 +11714,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -11769,7 +11752,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -11806,7 +11789,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -11843,7 +11826,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -11880,7 +11863,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -11917,7 +11900,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -11954,7 +11937,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -11991,7 +11974,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -12028,7 +12011,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -12065,7 +12048,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -12102,7 +12085,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -12139,7 +12122,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -12176,7 +12159,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -12213,7 +12196,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -12250,7 +12233,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -12287,7 +12270,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -12324,7 +12307,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -12361,7 +12344,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -12398,7 +12381,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -12435,7 +12418,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -12472,7 +12455,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -12509,7 +12492,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -12546,7 +12529,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -12583,7 +12566,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -12620,7 +12603,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -12657,7 +12640,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -12694,7 +12677,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -12731,7 +12714,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -12768,7 +12751,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -12805,7 +12788,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -12842,7 +12825,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -12879,7 +12862,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -12916,7 +12899,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -12953,7 +12936,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -12990,7 +12973,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -13027,7 +13010,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -13064,7 +13047,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -13101,7 +13084,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -13138,7 +13121,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -13175,7 +13158,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -13212,7 +13195,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -13249,7 +13232,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -13286,7 +13269,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -13323,7 +13306,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -13360,7 +13343,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -13397,7 +13380,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -13434,7 +13417,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -13471,7 +13454,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -13508,7 +13491,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -13545,7 +13528,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -13582,7 +13565,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -13619,7 +13602,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -13656,7 +13639,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -13693,7 +13676,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -13730,7 +13713,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -13767,7 +13750,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -13804,7 +13787,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -13841,7 +13824,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -13878,7 +13861,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -13915,7 +13898,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -13952,7 +13935,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -13989,7 +13972,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -14026,7 +14009,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -14063,7 +14046,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -14100,7 +14083,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -14137,7 +14120,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -14174,7 +14157,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -14211,7 +14194,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -14248,7 +14231,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -14285,7 +14268,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -14322,7 +14305,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -14359,7 +14342,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -14396,7 +14379,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -14433,7 +14416,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -14470,7 +14453,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -14507,7 +14490,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -14544,7 +14527,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -14581,7 +14564,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -14618,7 +14601,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -14655,7 +14638,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -14692,7 +14675,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -14729,7 +14712,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -14766,7 +14749,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -14803,7 +14786,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -14840,7 +14823,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -14870,7 +14853,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -14883,7 +14866,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -14902,7 +14885,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -14923,17 +14906,17 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>USD_YC6MRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -14968,7 +14951,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -15002,7 +14985,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -15036,7 +15019,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -15070,7 +15053,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -15104,7 +15087,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -15138,7 +15121,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -15172,7 +15155,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -15206,7 +15189,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -15240,7 +15223,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -15274,7 +15257,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -15308,7 +15291,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -15342,7 +15325,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -15376,7 +15359,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -15410,7 +15393,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -15444,7 +15427,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -15478,7 +15461,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -15512,7 +15495,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -15546,7 +15529,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -15580,7 +15563,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -15614,7 +15597,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -15648,7 +15631,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -15682,7 +15665,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -15716,7 +15699,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -15750,7 +15733,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -15784,7 +15767,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -15818,7 +15801,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -15852,7 +15835,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -15886,7 +15869,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -15920,7 +15903,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -15954,7 +15937,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -15988,7 +15971,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -16022,7 +16005,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -16056,7 +16039,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -16090,7 +16073,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -16124,7 +16107,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -16158,7 +16141,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -16192,7 +16175,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -16225,7 +16208,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -16258,7 +16241,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -16291,7 +16274,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -16324,7 +16307,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -16357,7 +16340,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -16390,7 +16373,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -16423,7 +16406,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -16456,7 +16439,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -16489,7 +16472,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -16522,7 +16505,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -16555,7 +16538,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -16588,7 +16571,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -16621,7 +16604,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -16654,7 +16637,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -16687,7 +16670,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -16720,7 +16703,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -16753,7 +16736,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -16786,7 +16769,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -16819,7 +16802,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -16852,7 +16835,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -16885,7 +16868,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -16918,7 +16901,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -16951,7 +16934,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -16984,7 +16967,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -17017,7 +17000,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -17050,7 +17033,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -17083,7 +17066,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -17116,7 +17099,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -17149,7 +17132,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -17182,7 +17165,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -17215,7 +17198,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -17248,7 +17231,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -17281,7 +17264,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -17314,7 +17297,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -17347,7 +17330,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -17380,7 +17363,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -17413,7 +17396,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -17446,7 +17429,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -17479,7 +17462,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -17512,7 +17495,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -17545,7 +17528,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -17578,7 +17561,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -17611,7 +17594,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -17644,7 +17627,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -17677,7 +17660,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -17710,7 +17693,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -17743,7 +17726,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -17776,7 +17759,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -17809,7 +17792,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -17842,7 +17825,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -17875,7 +17858,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -17908,7 +17891,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -17941,7 +17924,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -17974,7 +17957,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -18007,7 +17990,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -18040,7 +18023,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -18073,7 +18056,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -18106,7 +18089,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -18139,7 +18122,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -18172,7 +18155,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -18205,7 +18188,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -18238,7 +18221,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -18271,7 +18254,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -18304,7 +18287,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -18337,7 +18320,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -18370,7 +18353,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -18403,7 +18386,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -18436,7 +18419,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -18469,7 +18452,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -18502,7 +18485,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -18535,7 +18518,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -18568,7 +18551,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -18601,7 +18584,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -18634,7 +18617,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -18667,7 +18650,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -18700,7 +18683,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -18733,7 +18716,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -18766,7 +18749,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -18799,7 +18782,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -18832,7 +18815,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -18865,7 +18848,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -18898,7 +18881,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -18931,7 +18914,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1">
+    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -18960,7 +18943,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="40" bestFit="1" customWidth="1"/>
@@ -18976,7 +18959,7 @@
     <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -18996,7 +18979,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -19020,17 +19003,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YC1M-MxRH_Futures1M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -19069,7 +19052,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -19107,7 +19090,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -19145,7 +19128,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="46"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -19183,7 +19166,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="46"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -19221,7 +19204,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="46"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -19259,7 +19242,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -19297,7 +19280,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -19335,7 +19318,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -19373,7 +19356,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -19411,7 +19394,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -19449,7 +19432,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -19487,7 +19470,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -19525,7 +19508,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -19563,7 +19546,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -19601,7 +19584,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -19639,7 +19622,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -19677,7 +19660,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -19715,7 +19698,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -19753,7 +19736,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -19791,7 +19774,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -19829,7 +19812,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -19867,7 +19850,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -19905,7 +19888,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -19943,7 +19926,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -19981,7 +19964,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -20019,7 +20002,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -20057,7 +20040,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -20095,7 +20078,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -20133,7 +20116,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -20171,7 +20154,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -20209,7 +20192,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -20247,7 +20230,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -20285,7 +20268,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -20323,7 +20306,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -20361,7 +20344,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -20399,7 +20382,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -20437,7 +20420,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -20474,7 +20457,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -20511,7 +20494,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -20548,7 +20531,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -20585,7 +20568,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -20622,7 +20605,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -20659,7 +20642,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -20696,7 +20679,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -20733,7 +20716,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -20770,7 +20753,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -20807,7 +20790,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -20844,7 +20827,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -20881,7 +20864,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -20918,7 +20901,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -20955,7 +20938,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -20992,7 +20975,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -21029,7 +21012,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -21066,7 +21049,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -21103,7 +21086,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -21140,7 +21123,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -21177,7 +21160,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -21214,7 +21197,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -21251,7 +21234,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -21288,7 +21271,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -21325,7 +21308,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -21362,7 +21345,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -21399,7 +21382,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -21436,7 +21419,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -21473,7 +21456,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -21510,7 +21493,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -21547,7 +21530,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -21584,7 +21567,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -21621,7 +21604,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -21658,7 +21641,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -21695,7 +21678,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -21732,7 +21715,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -21769,7 +21752,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -21806,7 +21789,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -21843,7 +21826,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -21880,7 +21863,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -21917,7 +21900,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -21954,7 +21937,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -21991,7 +21974,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -22028,7 +22011,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -22065,7 +22048,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -22102,7 +22085,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -22139,7 +22122,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -22176,7 +22159,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -22213,7 +22196,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -22250,7 +22233,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -22287,7 +22270,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -22324,7 +22307,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -22361,7 +22344,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -22398,7 +22381,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -22435,7 +22418,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -22472,7 +22455,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -22509,7 +22492,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -22546,7 +22529,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -22583,7 +22566,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -22620,7 +22603,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -22657,7 +22640,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -22694,7 +22677,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -22731,7 +22714,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -22768,7 +22751,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -22805,7 +22788,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -22842,7 +22825,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -22879,7 +22862,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -22916,7 +22899,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -22953,7 +22936,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -22990,7 +22973,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -23027,7 +23010,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -23064,7 +23047,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -23101,7 +23084,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -23138,7 +23121,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -23175,7 +23158,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -23212,7 +23195,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -23249,7 +23232,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -23286,7 +23269,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -23323,7 +23306,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -23360,7 +23343,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -23397,7 +23380,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -23434,7 +23417,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -23471,7 +23454,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -23508,7 +23491,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="12" thickBot="1">
+    <row r="123" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -23538,7 +23521,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -23552,7 +23535,7 @@
     <col min="11" max="11" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -23572,7 +23555,7 @@
       <c r="J1" s="44"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+    <row r="2" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -23596,17 +23579,17 @@
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YC3M-MxRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(I2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -23645,7 +23628,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -23683,7 +23666,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -23721,7 +23704,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -23759,7 +23742,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -23797,7 +23780,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -23835,7 +23818,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -23873,7 +23856,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -23911,7 +23894,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -23949,7 +23932,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -23987,7 +23970,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -24025,7 +24008,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -24063,7 +24046,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -24101,7 +24084,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -24139,7 +24122,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -24177,7 +24160,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -24215,7 +24198,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -24253,7 +24236,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -24291,7 +24274,7 @@
       <c r="K20" s="11"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -24329,7 +24312,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -24367,7 +24350,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -24405,7 +24388,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -24443,7 +24426,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -24481,7 +24464,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -24519,7 +24502,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -24557,7 +24540,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -24595,7 +24578,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -24633,7 +24616,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -24671,7 +24654,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -24709,7 +24692,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -24747,7 +24730,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -24785,7 +24768,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -24823,7 +24806,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -24861,7 +24844,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -24899,7 +24882,7 @@
       <c r="K36" s="11"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -24937,7 +24920,7 @@
       <c r="K37" s="11"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -24975,7 +24958,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -25013,7 +24996,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -25050,7 +25033,7 @@
       </c>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -25087,7 +25070,7 @@
       </c>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -25124,7 +25107,7 @@
       </c>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -25161,7 +25144,7 @@
       </c>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -25198,7 +25181,7 @@
       </c>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -25235,7 +25218,7 @@
       </c>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -25272,7 +25255,7 @@
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -25309,7 +25292,7 @@
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -25346,7 +25329,7 @@
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -25383,7 +25366,7 @@
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -25420,7 +25403,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -25457,7 +25440,7 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -25494,7 +25477,7 @@
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -25531,7 +25514,7 @@
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -25568,7 +25551,7 @@
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -25605,7 +25588,7 @@
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -25642,7 +25625,7 @@
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -25679,7 +25662,7 @@
       </c>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -25716,7 +25699,7 @@
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -25753,7 +25736,7 @@
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -25790,7 +25773,7 @@
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -25827,7 +25810,7 @@
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -25864,7 +25847,7 @@
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -25901,7 +25884,7 @@
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -25938,7 +25921,7 @@
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -25975,7 +25958,7 @@
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -26012,7 +25995,7 @@
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -26049,7 +26032,7 @@
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -26086,7 +26069,7 @@
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -26123,7 +26106,7 @@
       </c>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -26160,7 +26143,7 @@
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -26197,7 +26180,7 @@
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -26234,7 +26217,7 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -26271,7 +26254,7 @@
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -26308,7 +26291,7 @@
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -26345,7 +26328,7 @@
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -26382,7 +26365,7 @@
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -26419,7 +26402,7 @@
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -26456,7 +26439,7 @@
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -26493,7 +26476,7 @@
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -26530,7 +26513,7 @@
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -26567,7 +26550,7 @@
       </c>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -26604,7 +26587,7 @@
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -26641,7 +26624,7 @@
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -26678,7 +26661,7 @@
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -26715,7 +26698,7 @@
       </c>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -26752,7 +26735,7 @@
       </c>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -26789,7 +26772,7 @@
       </c>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -26826,7 +26809,7 @@
       </c>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -26863,7 +26846,7 @@
       </c>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -26900,7 +26883,7 @@
       </c>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -26937,7 +26920,7 @@
       </c>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -26974,7 +26957,7 @@
       </c>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -27011,7 +26994,7 @@
       </c>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -27048,7 +27031,7 @@
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -27085,7 +27068,7 @@
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -27122,7 +27105,7 @@
       </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -27159,7 +27142,7 @@
       </c>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -27196,7 +27179,7 @@
       </c>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -27233,7 +27216,7 @@
       </c>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -27270,7 +27253,7 @@
       </c>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -27307,7 +27290,7 @@
       </c>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -27344,7 +27327,7 @@
       </c>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -27381,7 +27364,7 @@
       </c>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -27418,7 +27401,7 @@
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -27455,7 +27438,7 @@
       </c>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -27492,7 +27475,7 @@
       </c>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -27529,7 +27512,7 @@
       </c>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -27566,7 +27549,7 @@
       </c>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -27603,7 +27586,7 @@
       </c>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -27640,7 +27623,7 @@
       </c>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -27677,7 +27660,7 @@
       </c>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -27714,7 +27697,7 @@
       </c>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -27751,7 +27734,7 @@
       </c>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -27788,7 +27771,7 @@
       </c>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -27825,7 +27808,7 @@
       </c>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -27862,7 +27845,7 @@
       </c>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -27899,7 +27882,7 @@
       </c>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -27936,7 +27919,7 @@
       </c>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -27973,7 +27956,7 @@
       </c>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -28010,7 +27993,7 @@
       </c>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -28047,7 +28030,7 @@
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -28084,7 +28067,7 @@
       </c>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" thickBot="1">
+    <row r="123" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -28114,7 +28097,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -28127,7 +28110,7 @@
     <col min="10" max="10" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -28148,7 +28131,7 @@
       <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="34" t="s">
         <v>1</v>
@@ -28169,17 +28152,17 @@
         <f>$G$1&amp;"_"&amp;$F$1&amp;$E$1&amp;".xml"</f>
         <v>USD_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="I2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(H2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
         <v/>
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="30">
         <v>1</v>
@@ -28214,7 +28197,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>2</v>
@@ -28248,7 +28231,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>3</v>
@@ -28282,7 +28265,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>4</v>
@@ -28316,7 +28299,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>5</v>
@@ -28350,7 +28333,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>6</v>
@@ -28384,7 +28367,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>7</v>
@@ -28418,7 +28401,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>8</v>
@@ -28452,7 +28435,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>9</v>
@@ -28486,7 +28469,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>10</v>
@@ -28520,7 +28503,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>11</v>
@@ -28554,7 +28537,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>12</v>
@@ -28588,7 +28571,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="32">
         <v>13</v>
@@ -28622,7 +28605,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="32">
         <v>14</v>
@@ -28656,7 +28639,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="32">
         <v>15</v>
@@ -28690,7 +28673,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="32">
         <v>16</v>
@@ -28724,7 +28707,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="32">
         <v>17</v>
@@ -28758,7 +28741,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="32">
         <v>18</v>
@@ -28792,7 +28775,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="32">
         <v>19</v>
@@ -28826,7 +28809,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="32">
         <v>20</v>
@@ -28860,7 +28843,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
       <c r="B23" s="32">
         <v>21</v>
@@ -28894,7 +28877,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="45"/>
       <c r="B24" s="32">
         <v>22</v>
@@ -28928,7 +28911,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="45"/>
       <c r="B25" s="32">
         <v>23</v>
@@ -28962,7 +28945,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="45"/>
       <c r="B26" s="32">
         <v>24</v>
@@ -28996,7 +28979,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="32">
         <v>25</v>
@@ -29030,7 +29013,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="45"/>
       <c r="B28" s="32">
         <v>26</v>
@@ -29064,7 +29047,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="32">
         <v>27</v>
@@ -29098,7 +29081,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="32">
         <v>28</v>
@@ -29132,7 +29115,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
       <c r="B31" s="32">
         <v>29</v>
@@ -29166,7 +29149,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="32">
         <v>30</v>
@@ -29200,7 +29183,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="32">
         <v>31</v>
@@ -29234,7 +29217,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="32">
         <v>32</v>
@@ -29268,7 +29251,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="32">
         <v>33</v>
@@ -29302,7 +29285,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="32">
         <v>34</v>
@@ -29336,7 +29319,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="32">
         <v>35</v>
@@ -29370,7 +29353,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="32">
         <v>36</v>
@@ -29404,7 +29387,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="32">
         <v>37</v>
@@ -29438,7 +29421,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="32">
         <v>38</v>
@@ -29471,7 +29454,7 @@
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="32">
         <v>39</v>
@@ -29504,7 +29487,7 @@
       </c>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="32">
         <v>40</v>
@@ -29537,7 +29520,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="32">
         <v>41</v>
@@ -29570,7 +29553,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="32">
         <v>42</v>
@@ -29603,7 +29586,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="32">
         <v>43</v>
@@ -29636,7 +29619,7 @@
       </c>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="32">
         <v>44</v>
@@ -29669,7 +29652,7 @@
       </c>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="32">
         <v>45</v>
@@ -29702,7 +29685,7 @@
       </c>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="32">
         <v>46</v>
@@ -29735,7 +29718,7 @@
       </c>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="32">
         <v>47</v>
@@ -29768,7 +29751,7 @@
       </c>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="32">
         <v>48</v>
@@ -29801,7 +29784,7 @@
       </c>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
       <c r="B51" s="32">
         <v>49</v>
@@ -29834,7 +29817,7 @@
       </c>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="45"/>
       <c r="B52" s="32">
         <v>50</v>
@@ -29867,7 +29850,7 @@
       </c>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
       <c r="B53" s="32">
         <v>51</v>
@@ -29900,7 +29883,7 @@
       </c>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="45"/>
       <c r="B54" s="32">
         <v>52</v>
@@ -29933,7 +29916,7 @@
       </c>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
       <c r="B55" s="32">
         <v>53</v>
@@ -29966,7 +29949,7 @@
       </c>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="45"/>
       <c r="B56" s="32">
         <v>54</v>
@@ -29999,7 +29982,7 @@
       </c>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="45"/>
       <c r="B57" s="32">
         <v>55</v>
@@ -30032,7 +30015,7 @@
       </c>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="45"/>
       <c r="B58" s="32">
         <v>56</v>
@@ -30065,7 +30048,7 @@
       </c>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
       <c r="B59" s="32">
         <v>57</v>
@@ -30098,7 +30081,7 @@
       </c>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="45"/>
       <c r="B60" s="32">
         <v>58</v>
@@ -30131,7 +30114,7 @@
       </c>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="32">
         <v>59</v>
@@ -30164,7 +30147,7 @@
       </c>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
       <c r="B62" s="32">
         <v>60</v>
@@ -30197,7 +30180,7 @@
       </c>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
       <c r="B63" s="32">
         <v>61</v>
@@ -30230,7 +30213,7 @@
       </c>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
       <c r="B64" s="32">
         <v>62</v>
@@ -30263,7 +30246,7 @@
       </c>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="32">
         <v>63</v>
@@ -30296,7 +30279,7 @@
       </c>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
       <c r="B66" s="32">
         <v>64</v>
@@ -30329,7 +30312,7 @@
       </c>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="45"/>
       <c r="B67" s="32">
         <v>65</v>
@@ -30362,7 +30345,7 @@
       </c>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
       <c r="B68" s="32">
         <v>66</v>
@@ -30395,7 +30378,7 @@
       </c>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="45"/>
       <c r="B69" s="32">
         <v>67</v>
@@ -30428,7 +30411,7 @@
       </c>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
       <c r="B70" s="32">
         <v>68</v>
@@ -30461,7 +30444,7 @@
       </c>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="45"/>
       <c r="B71" s="32">
         <v>69</v>
@@ -30494,7 +30477,7 @@
       </c>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
       <c r="B72" s="32">
         <v>70</v>
@@ -30527,7 +30510,7 @@
       </c>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="45"/>
       <c r="B73" s="32">
         <v>71</v>
@@ -30560,7 +30543,7 @@
       </c>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
       <c r="B74" s="32">
         <v>72</v>
@@ -30593,7 +30576,7 @@
       </c>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="45"/>
       <c r="B75" s="32">
         <v>73</v>
@@ -30626,7 +30609,7 @@
       </c>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="45"/>
       <c r="B76" s="32">
         <v>74</v>
@@ -30659,7 +30642,7 @@
       </c>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="45"/>
       <c r="B77" s="32">
         <v>75</v>
@@ -30692,7 +30675,7 @@
       </c>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="45"/>
       <c r="B78" s="32">
         <v>76</v>
@@ -30725,7 +30708,7 @@
       </c>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="45"/>
       <c r="B79" s="32">
         <v>77</v>
@@ -30758,7 +30741,7 @@
       </c>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="45"/>
       <c r="B80" s="32">
         <v>78</v>
@@ -30791,7 +30774,7 @@
       </c>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="45"/>
       <c r="B81" s="32">
         <v>79</v>
@@ -30824,7 +30807,7 @@
       </c>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="45"/>
       <c r="B82" s="32">
         <v>80</v>
@@ -30857,7 +30840,7 @@
       </c>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="45"/>
       <c r="B83" s="32">
         <v>81</v>
@@ -30890,7 +30873,7 @@
       </c>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="45"/>
       <c r="B84" s="32">
         <v>82</v>
@@ -30923,7 +30906,7 @@
       </c>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="45"/>
       <c r="B85" s="32">
         <v>83</v>
@@ -30956,7 +30939,7 @@
       </c>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="45"/>
       <c r="B86" s="32">
         <v>84</v>
@@ -30989,7 +30972,7 @@
       </c>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="45"/>
       <c r="B87" s="32">
         <v>85</v>
@@ -31022,7 +31005,7 @@
       </c>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="45"/>
       <c r="B88" s="32">
         <v>86</v>
@@ -31055,7 +31038,7 @@
       </c>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="45"/>
       <c r="B89" s="32">
         <v>87</v>
@@ -31088,7 +31071,7 @@
       </c>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="45"/>
       <c r="B90" s="32">
         <v>88</v>
@@ -31121,7 +31104,7 @@
       </c>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="45"/>
       <c r="B91" s="32">
         <v>89</v>
@@ -31154,7 +31137,7 @@
       </c>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="45"/>
       <c r="B92" s="32">
         <v>90</v>
@@ -31187,7 +31170,7 @@
       </c>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="45"/>
       <c r="B93" s="32">
         <v>91</v>
@@ -31220,7 +31203,7 @@
       </c>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="45"/>
       <c r="B94" s="32">
         <v>92</v>
@@ -31253,7 +31236,7 @@
       </c>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="45"/>
       <c r="B95" s="32">
         <v>93</v>
@@ -31286,7 +31269,7 @@
       </c>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="45"/>
       <c r="B96" s="32">
         <v>94</v>
@@ -31319,7 +31302,7 @@
       </c>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="45"/>
       <c r="B97" s="32">
         <v>95</v>
@@ -31352,7 +31335,7 @@
       </c>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="45"/>
       <c r="B98" s="32">
         <v>96</v>
@@ -31385,7 +31368,7 @@
       </c>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="45"/>
       <c r="B99" s="32">
         <v>97</v>
@@ -31418,7 +31401,7 @@
       </c>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="45"/>
       <c r="B100" s="32">
         <v>98</v>
@@ -31451,7 +31434,7 @@
       </c>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="45"/>
       <c r="B101" s="32">
         <v>99</v>
@@ -31484,7 +31467,7 @@
       </c>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="45"/>
       <c r="B102" s="32">
         <v>100</v>
@@ -31517,7 +31500,7 @@
       </c>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="45"/>
       <c r="B103" s="32">
         <v>101</v>
@@ -31550,7 +31533,7 @@
       </c>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="45"/>
       <c r="B104" s="32">
         <v>102</v>
@@ -31583,7 +31566,7 @@
       </c>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="45"/>
       <c r="B105" s="32">
         <v>103</v>
@@ -31616,7 +31599,7 @@
       </c>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="45"/>
       <c r="B106" s="32">
         <v>104</v>
@@ -31649,7 +31632,7 @@
       </c>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="45"/>
       <c r="B107" s="32">
         <v>105</v>
@@ -31682,7 +31665,7 @@
       </c>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="45"/>
       <c r="B108" s="32">
         <v>106</v>
@@ -31715,7 +31698,7 @@
       </c>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="45"/>
       <c r="B109" s="32">
         <v>107</v>
@@ -31748,7 +31731,7 @@
       </c>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="45"/>
       <c r="B110" s="32">
         <v>108</v>
@@ -31781,7 +31764,7 @@
       </c>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
       <c r="B111" s="32">
         <v>109</v>
@@ -31814,7 +31797,7 @@
       </c>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="45"/>
       <c r="B112" s="32">
         <v>110</v>
@@ -31847,7 +31830,7 @@
       </c>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="45"/>
       <c r="B113" s="32">
         <v>111</v>
@@ -31880,7 +31863,7 @@
       </c>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="45"/>
       <c r="B114" s="32">
         <v>112</v>
@@ -31913,7 +31896,7 @@
       </c>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="45"/>
       <c r="B115" s="32">
         <v>113</v>
@@ -31946,7 +31929,7 @@
       </c>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="45"/>
       <c r="B116" s="32">
         <v>114</v>
@@ -31979,7 +31962,7 @@
       </c>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="45"/>
       <c r="B117" s="32">
         <v>115</v>
@@ -32012,7 +31995,7 @@
       </c>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="45"/>
       <c r="B118" s="32">
         <v>116</v>
@@ -32045,7 +32028,7 @@
       </c>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="45"/>
       <c r="B119" s="32">
         <v>117</v>
@@ -32078,7 +32061,7 @@
       </c>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="45"/>
       <c r="B120" s="32">
         <v>118</v>
@@ -32111,7 +32094,7 @@
       </c>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="45"/>
       <c r="B121" s="32">
         <v>119</v>
@@ -32144,7 +32127,7 @@
       </c>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="45"/>
       <c r="B122" s="32">
         <v>120</v>
@@ -32177,7 +32160,7 @@
       </c>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" ht="13.5" thickBot="1">
+    <row r="123" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Futures.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Futures.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Currency</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Libor</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1017,9 @@
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>26</v>
+      <c r="D8" s="27" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="17"/>
     </row>
@@ -1186,12 +1184,12 @@
         <v>USD_YCSTDRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -5762,12 +5760,12 @@
         <v>USD_YC1MRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -10336,12 +10334,12 @@
         <v>USD_YC3MRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -14907,12 +14905,12 @@
         <v>USD_YC6MRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
@@ -19004,12 +19002,12 @@
         <v>USD_YC1M-MxRH_Futures1M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -23580,12 +23578,12 @@
         <v>USD_YC3M-MxRH_Futures3M.xml</v>
       </c>
       <c r="I2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I122,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="K2" s="11"/>
     </row>
@@ -28153,12 +28151,12 @@
         <v>USD_YC6M-MxRH_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(H3:H122,SerializationPath&amp;G2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(H2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="J2" s="11"/>
     </row>
